--- a/s_d/麻吉4月.xlsx
+++ b/s_d/麻吉4月.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="697" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="697" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="4.1" sheetId="1" r:id="rId1"/>
     <sheet name="4.2" sheetId="2" r:id="rId2"/>
     <sheet name="4.3" sheetId="3" r:id="rId3"/>
+    <sheet name="4.4" sheetId="4" r:id="rId4"/>
+    <sheet name="4.5" sheetId="5" r:id="rId5"/>
+    <sheet name="4.6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="403">
   <si>
     <t>202004011800111568298</t>
   </si>
@@ -571,6 +574,660 @@
   </si>
   <si>
     <t>202004031554211668038</t>
+  </si>
+  <si>
+    <t>202004041950261110672</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:50</t>
+  </si>
+  <si>
+    <t>202004041950131347781</t>
+  </si>
+  <si>
+    <t>202004041950041742394</t>
+  </si>
+  <si>
+    <t>202004041949271108770</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:49</t>
+  </si>
+  <si>
+    <t>202004041932531171474</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:32</t>
+  </si>
+  <si>
+    <t>202004041945401735711</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:45</t>
+  </si>
+  <si>
+    <t>202004041948341884722</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:48</t>
+  </si>
+  <si>
+    <t>202004041933031300353</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:33</t>
+  </si>
+  <si>
+    <t>202004041948501878646</t>
+  </si>
+  <si>
+    <t>202004041933141469509</t>
+  </si>
+  <si>
+    <t>202004041950341993462</t>
+  </si>
+  <si>
+    <t>202004041928151867406</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:28</t>
+  </si>
+  <si>
+    <t>202004041933231376192</t>
+  </si>
+  <si>
+    <t>202004041928221408710</t>
+  </si>
+  <si>
+    <t>202004041904031985160</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:04</t>
+  </si>
+  <si>
+    <t>202004041903391877792</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:03</t>
+  </si>
+  <si>
+    <t>202004041945221501687</t>
+  </si>
+  <si>
+    <t>202004041933341638698</t>
+  </si>
+  <si>
+    <t>202004041855281366133</t>
+  </si>
+  <si>
+    <t>2020-04-04 18:55</t>
+  </si>
+  <si>
+    <t>202004041902501123001</t>
+  </si>
+  <si>
+    <t>2020-04-04 19:02</t>
+  </si>
+  <si>
+    <t>202004041854561964881</t>
+  </si>
+  <si>
+    <t>202004041948411868085</t>
+  </si>
+  <si>
+    <t>202004041902581140224</t>
+  </si>
+  <si>
+    <t>202004041949361393864</t>
+  </si>
+  <si>
+    <t>202004041854451950206</t>
+  </si>
+  <si>
+    <t>2020-04-04 18:54</t>
+  </si>
+  <si>
+    <t>202004041903061867950</t>
+  </si>
+  <si>
+    <t>202004041854241589805</t>
+  </si>
+  <si>
+    <t>202004041945321568913</t>
+  </si>
+  <si>
+    <t>202004041903141515674</t>
+  </si>
+  <si>
+    <t>202004041854321299813</t>
+  </si>
+  <si>
+    <t>202004041853231992875</t>
+  </si>
+  <si>
+    <t>2020-04-04 18:53</t>
+  </si>
+  <si>
+    <t>202004041853081818147</t>
+  </si>
+  <si>
+    <t>202004041852471353572</t>
+  </si>
+  <si>
+    <t>2020-04-04 18:52</t>
+  </si>
+  <si>
+    <t>202004041803341874662</t>
+  </si>
+  <si>
+    <t>2020-04-04 18:03</t>
+  </si>
+  <si>
+    <t>202004041803211634635</t>
+  </si>
+  <si>
+    <t>202004041803041857246</t>
+  </si>
+  <si>
+    <t>202004041802491287688</t>
+  </si>
+  <si>
+    <t>2020-04-04 18:02</t>
+  </si>
+  <si>
+    <t>202004041724051332880</t>
+  </si>
+  <si>
+    <t>2020-04-04 17:24</t>
+  </si>
+  <si>
+    <t>202004041723471722320</t>
+  </si>
+  <si>
+    <t>2020-04-04 17:23</t>
+  </si>
+  <si>
+    <t>202004041723281554217</t>
+  </si>
+  <si>
+    <t>202004041723091486109</t>
+  </si>
+  <si>
+    <t>202004041722531727661</t>
+  </si>
+  <si>
+    <t>2020-04-04 17:22</t>
+  </si>
+  <si>
+    <t>202004041553131870844</t>
+  </si>
+  <si>
+    <t>2020-04-04 15:53</t>
+  </si>
+  <si>
+    <t>202004041552581181074</t>
+  </si>
+  <si>
+    <t>202004041552341891408</t>
+  </si>
+  <si>
+    <t>2020-04-04 15:52</t>
+  </si>
+  <si>
+    <t>202004041552191418000</t>
+  </si>
+  <si>
+    <t>202004052022301856305</t>
+  </si>
+  <si>
+    <t>2020-04-05 20:22</t>
+  </si>
+  <si>
+    <t>202004052021571485407</t>
+  </si>
+  <si>
+    <t>202004052019331483882</t>
+  </si>
+  <si>
+    <t>2020-04-05 20:19</t>
+  </si>
+  <si>
+    <t>202004052022111549286</t>
+  </si>
+  <si>
+    <t>202004052021311922040</t>
+  </si>
+  <si>
+    <t>2020-04-05 20:21</t>
+  </si>
+  <si>
+    <t>202004052017181543957</t>
+  </si>
+  <si>
+    <t>2020-04-05 20:17</t>
+  </si>
+  <si>
+    <t>202004052018031516927</t>
+  </si>
+  <si>
+    <t>2020-04-05 20:18</t>
+  </si>
+  <si>
+    <t>202004052017261265594</t>
+  </si>
+  <si>
+    <t>202004052019181794061</t>
+  </si>
+  <si>
+    <t>202004052018191899888</t>
+  </si>
+  <si>
+    <t>202004052016101167961</t>
+  </si>
+  <si>
+    <t>2020-04-05 20:16</t>
+  </si>
+  <si>
+    <t>202004052000411957036</t>
+  </si>
+  <si>
+    <t>2020-04-05 20:00</t>
+  </si>
+  <si>
+    <t>202004052016271286575</t>
+  </si>
+  <si>
+    <t>202004052016181130266</t>
+  </si>
+  <si>
+    <t>202004052016381226253</t>
+  </si>
+  <si>
+    <t>202004052000321481925</t>
+  </si>
+  <si>
+    <t>202004051913161931513</t>
+  </si>
+  <si>
+    <t>2020-04-05 19:13</t>
+  </si>
+  <si>
+    <t>202004051954571660757</t>
+  </si>
+  <si>
+    <t>2020-04-05 19:55</t>
+  </si>
+  <si>
+    <t>202004051955061812109</t>
+  </si>
+  <si>
+    <t>202004051859131743805</t>
+  </si>
+  <si>
+    <t>2020-04-05 18:59</t>
+  </si>
+  <si>
+    <t>202004051913251337840</t>
+  </si>
+  <si>
+    <t>202004051954341874234</t>
+  </si>
+  <si>
+    <t>2020-04-05 19:54</t>
+  </si>
+  <si>
+    <t>202004051913351795353</t>
+  </si>
+  <si>
+    <t>202004051954411136040</t>
+  </si>
+  <si>
+    <t>202004051954491438093</t>
+  </si>
+  <si>
+    <t>202004051857181439836</t>
+  </si>
+  <si>
+    <t>2020-04-05 18:57</t>
+  </si>
+  <si>
+    <t>202004051846001187051</t>
+  </si>
+  <si>
+    <t>2020-04-05 18:46</t>
+  </si>
+  <si>
+    <t>202004051857091284326</t>
+  </si>
+  <si>
+    <t>202004051845411139581</t>
+  </si>
+  <si>
+    <t>2020-04-05 18:45</t>
+  </si>
+  <si>
+    <t>202004051857301583470</t>
+  </si>
+  <si>
+    <t>202004051913441606802</t>
+  </si>
+  <si>
+    <t>202004051845281584898</t>
+  </si>
+  <si>
+    <t>202004051857001648540</t>
+  </si>
+  <si>
+    <t>202004051856511537971</t>
+  </si>
+  <si>
+    <t>2020-04-05 18:56</t>
+  </si>
+  <si>
+    <t>202004051844311622509</t>
+  </si>
+  <si>
+    <t>2020-04-05 18:44</t>
+  </si>
+  <si>
+    <t>202004051856431585297</t>
+  </si>
+  <si>
+    <t>202004051844231136657</t>
+  </si>
+  <si>
+    <t>202004051856351558160</t>
+  </si>
+  <si>
+    <t>202004051846091239620</t>
+  </si>
+  <si>
+    <t>202004051844151608001</t>
+  </si>
+  <si>
+    <t>202004051843361598317</t>
+  </si>
+  <si>
+    <t>2020-04-05 18:43</t>
+  </si>
+  <si>
+    <t>202004051718281942994</t>
+  </si>
+  <si>
+    <t>2020-04-05 17:18</t>
+  </si>
+  <si>
+    <t>202004051718151776653</t>
+  </si>
+  <si>
+    <t>202004051718031247411</t>
+  </si>
+  <si>
+    <t>202004051717451287266</t>
+  </si>
+  <si>
+    <t>2020-04-05 17:17</t>
+  </si>
+  <si>
+    <t>202004051717301722307</t>
+  </si>
+  <si>
+    <t>202004051717161549081</t>
+  </si>
+  <si>
+    <t>202004051341501682033</t>
+  </si>
+  <si>
+    <t>2020-04-05 13:41</t>
+  </si>
+  <si>
+    <t>202004051341311773263</t>
+  </si>
+  <si>
+    <t>202004051340451560554</t>
+  </si>
+  <si>
+    <t>2020-04-05 13:40</t>
+  </si>
+  <si>
+    <t>202004051340291207990</t>
+  </si>
+  <si>
+    <t>202004051340131340067</t>
+  </si>
+  <si>
+    <t>202004051339541556335</t>
+  </si>
+  <si>
+    <t>202004061947281610124</t>
+  </si>
+  <si>
+    <t>2020-04-06 19:47</t>
+  </si>
+  <si>
+    <t>202004061939411477807</t>
+  </si>
+  <si>
+    <t>2020-04-06 19:39</t>
+  </si>
+  <si>
+    <t>202004061940021105072</t>
+  </si>
+  <si>
+    <t>2020-04-06 19:40</t>
+  </si>
+  <si>
+    <t>202004061939491303708</t>
+  </si>
+  <si>
+    <t>202004061845241130961</t>
+  </si>
+  <si>
+    <t>2020-04-06 18:45</t>
+  </si>
+  <si>
+    <t>202004061913231362972</t>
+  </si>
+  <si>
+    <t>2020-04-06 19:13</t>
+  </si>
+  <si>
+    <t>202004061940261422772</t>
+  </si>
+  <si>
+    <t>202004061913311250223</t>
+  </si>
+  <si>
+    <t>202004061940111244550</t>
+  </si>
+  <si>
+    <t>202004061845001462694</t>
+  </si>
+  <si>
+    <t>202004061842091696445</t>
+  </si>
+  <si>
+    <t>2020-04-06 18:42</t>
+  </si>
+  <si>
+    <t>202004061841591223107</t>
+  </si>
+  <si>
+    <t>202004061835141101072</t>
+  </si>
+  <si>
+    <t>2020-04-06 18:35</t>
+  </si>
+  <si>
+    <t>202004061835011373354</t>
+  </si>
+  <si>
+    <t>202004061826511419801</t>
+  </si>
+  <si>
+    <t>2020-04-06 18:26</t>
+  </si>
+  <si>
+    <t>202004061809571750521</t>
+  </si>
+  <si>
+    <t>2020-04-06 18:10</t>
+  </si>
+  <si>
+    <t>202004061802281466993</t>
+  </si>
+  <si>
+    <t>2020-04-06 18:02</t>
+  </si>
+  <si>
+    <t>202004061802101487561</t>
+  </si>
+  <si>
+    <t>202004061812051777246</t>
+  </si>
+  <si>
+    <t>2020-04-06 18:12</t>
+  </si>
+  <si>
+    <t>202004061809491431559</t>
+  </si>
+  <si>
+    <t>2020-04-06 18:09</t>
+  </si>
+  <si>
+    <t>202004061802191437487</t>
+  </si>
+  <si>
+    <t>202004061734301459500</t>
+  </si>
+  <si>
+    <t>2020-04-06 17:34</t>
+  </si>
+  <si>
+    <t>202004061730511893541</t>
+  </si>
+  <si>
+    <t>2020-04-06 17:30</t>
+  </si>
+  <si>
+    <t>202004061718091409183</t>
+  </si>
+  <si>
+    <t>2020-04-06 17:18</t>
+  </si>
+  <si>
+    <t>202004061718251307726</t>
+  </si>
+  <si>
+    <t>202004061718181216141</t>
+  </si>
+  <si>
+    <t>202004061650151877297</t>
+  </si>
+  <si>
+    <t>2020-04-06 16:50</t>
+  </si>
+  <si>
+    <t>202004061633331253335</t>
+  </si>
+  <si>
+    <t>2020-04-06 16:33</t>
+  </si>
+  <si>
+    <t>202004061630151176833</t>
+  </si>
+  <si>
+    <t>2020-04-06 16:30</t>
+  </si>
+  <si>
+    <t>202004061623021433253</t>
+  </si>
+  <si>
+    <t>2020-04-06 16:23</t>
+  </si>
+  <si>
+    <t>202004061610471575252</t>
+  </si>
+  <si>
+    <t>2020-04-06 16:10</t>
+  </si>
+  <si>
+    <t>202004061559291108497</t>
+  </si>
+  <si>
+    <t>2020-04-06 15:59</t>
+  </si>
+  <si>
+    <t>202004061550081354768</t>
+  </si>
+  <si>
+    <t>2020-04-06 15:50</t>
+  </si>
+  <si>
+    <t>202004061610391433964</t>
+  </si>
+  <si>
+    <t>202004061559371748567</t>
+  </si>
+  <si>
+    <t>202004061521371402618</t>
+  </si>
+  <si>
+    <t>2020-04-06 15:21</t>
+  </si>
+  <si>
+    <t>202004061550201628325</t>
+  </si>
+  <si>
+    <t>202004061521531211494</t>
+  </si>
+  <si>
+    <t>202004061447411491597</t>
+  </si>
+  <si>
+    <t>2020-04-06 14:47</t>
+  </si>
+  <si>
+    <t>202004061521441381267</t>
+  </si>
+  <si>
+    <t>202004061414111434425</t>
+  </si>
+  <si>
+    <t>2020-04-06 14:14</t>
+  </si>
+  <si>
+    <t>202004061448001302853</t>
+  </si>
+  <si>
+    <t>2020-04-06 14:48</t>
+  </si>
+  <si>
+    <t>202004061448201805295</t>
+  </si>
+  <si>
+    <t>202004061413551285776</t>
+  </si>
+  <si>
+    <t>202004061447521145086</t>
+  </si>
+  <si>
+    <t>202004061414211357736</t>
+  </si>
+  <si>
+    <t>202004061414311924574</t>
+  </si>
+  <si>
+    <t>202004061413281467349</t>
+  </si>
+  <si>
+    <t>2020-04-06 14:13</t>
+  </si>
+  <si>
+    <t>202004061401121485809</t>
+  </si>
+  <si>
+    <t>2020-04-06 14:01</t>
   </si>
 </sst>
 </file>
@@ -603,15 +1260,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,27 +1275,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,22 +1289,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,8 +1326,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,7 +1352,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -714,15 +1374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -738,11 +1389,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -779,13 +1436,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,13 +1556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,121 +1592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,21 +1636,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1009,24 +1651,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1038,6 +1662,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,6 +1694,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1069,10 +1726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1081,7 +1738,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1090,28 +1747,28 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1120,94 +1777,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4794,62 +5451,1092 @@
   <sheetPr/>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7">
+        <v>45439</v>
+      </c>
+      <c r="B1" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>520</v>
+      </c>
+      <c r="F1" s="7">
+        <v>520</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7">
+        <v>45438</v>
+      </c>
+      <c r="B2" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>219</v>
+      </c>
+      <c r="F2" s="7">
+        <v>219</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7">
+        <v>45437</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>734</v>
+      </c>
+      <c r="F3" s="7">
+        <v>734</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="7">
+        <v>45435</v>
+      </c>
+      <c r="B4" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>847</v>
+      </c>
+      <c r="F4" s="7">
+        <v>847</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(E:E)</f>
+        <v>20093</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="7">
+        <v>45431</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>145.9</v>
+      </c>
+      <c r="F5" s="7">
+        <v>145.9</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="5">
+        <f>M2+M3-O3-M4</f>
+        <v>-93</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="7">
+        <v>45428</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>711</v>
+      </c>
+      <c r="F6" s="7">
+        <v>711</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3">
+        <v>85.46</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="7">
+        <v>45427</v>
+      </c>
+      <c r="B7" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>432</v>
+      </c>
+      <c r="F7" s="7">
+        <v>432</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>-7.54000000000001</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
+        <v>45426</v>
+      </c>
+      <c r="B8" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>745</v>
+      </c>
+      <c r="F8" s="7">
+        <v>745</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>45425</v>
+      </c>
+      <c r="B9" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>665</v>
+      </c>
+      <c r="F9" s="7">
+        <v>665</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>45424</v>
+      </c>
+      <c r="B10" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>308</v>
+      </c>
+      <c r="F10" s="7">
+        <v>308</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>45423</v>
+      </c>
+      <c r="B11" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>437.9</v>
+      </c>
+      <c r="F11" s="7">
+        <v>437.9</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
+        <v>45422</v>
+      </c>
+      <c r="B12" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>622</v>
+      </c>
+      <c r="F12" s="7">
+        <v>622</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>45421</v>
+      </c>
+      <c r="B13" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>557</v>
+      </c>
+      <c r="F13" s="7">
+        <v>557</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>45420</v>
+      </c>
+      <c r="B14" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>526.7</v>
+      </c>
+      <c r="F14" s="7">
+        <v>526.7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>45419</v>
+      </c>
+      <c r="B15" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1143</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1143</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>45418</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>852.9</v>
+      </c>
+      <c r="F16" s="7">
+        <v>852.9</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>45417</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>367</v>
+      </c>
+      <c r="F17" s="7">
+        <v>367</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
+        <v>45416</v>
+      </c>
+      <c r="B18" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>622</v>
+      </c>
+      <c r="F18" s="7">
+        <v>622</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>45415</v>
+      </c>
+      <c r="B19" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>479</v>
+      </c>
+      <c r="F19" s="7">
+        <v>479</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>45414</v>
+      </c>
+      <c r="B20" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>731</v>
+      </c>
+      <c r="F20" s="7">
+        <v>731</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>45413</v>
+      </c>
+      <c r="B21" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>613</v>
+      </c>
+      <c r="F21" s="7">
+        <v>613</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>45412</v>
+      </c>
+      <c r="B22" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>276</v>
+      </c>
+      <c r="F22" s="7">
+        <v>276</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>45411</v>
+      </c>
+      <c r="B23" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>218.8</v>
+      </c>
+      <c r="F23" s="7">
+        <v>218.8</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7">
+        <v>45410</v>
+      </c>
+      <c r="B24" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>265</v>
+      </c>
+      <c r="F24" s="7">
+        <v>265</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>45409</v>
+      </c>
+      <c r="B25" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>849</v>
+      </c>
+      <c r="F25" s="7">
+        <v>849</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>45408</v>
+      </c>
+      <c r="B26" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>253</v>
+      </c>
+      <c r="F26" s="7">
+        <v>253</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7">
+        <v>45407</v>
+      </c>
+      <c r="B27" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>658</v>
+      </c>
+      <c r="F27" s="7">
+        <v>658</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7">
+        <v>45406</v>
+      </c>
+      <c r="B28" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7">
+        <v>525.9</v>
+      </c>
+      <c r="F28" s="7">
+        <v>525.9</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7">
+        <v>45405</v>
+      </c>
+      <c r="B29" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3</v>
+      </c>
+      <c r="E29" s="7">
+        <v>508</v>
+      </c>
+      <c r="F29" s="7">
+        <v>508</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7">
+        <v>45403</v>
+      </c>
+      <c r="B30" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
+      <c r="E30" s="7">
+        <v>225.9</v>
+      </c>
+      <c r="F30" s="7">
+        <v>225.9</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>45402</v>
+      </c>
+      <c r="B31" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7">
+        <v>867</v>
+      </c>
+      <c r="F31" s="7">
+        <v>867</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7">
+        <v>45401</v>
+      </c>
+      <c r="B32" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>748</v>
+      </c>
+      <c r="F32" s="7">
+        <v>748</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7">
+        <v>45400</v>
+      </c>
+      <c r="B33" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>140</v>
+      </c>
+      <c r="F33" s="7">
+        <v>140</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7">
+        <v>45399</v>
+      </c>
+      <c r="B34" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7">
+        <v>187</v>
+      </c>
+      <c r="F34" s="7">
+        <v>187</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7">
+        <v>45395</v>
+      </c>
+      <c r="B35" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7">
+        <v>347</v>
+      </c>
+      <c r="F35" s="7">
+        <v>347</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7">
+        <v>45392</v>
+      </c>
+      <c r="B36" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7">
+        <v>885</v>
+      </c>
+      <c r="F36" s="7">
+        <v>885</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7">
+        <v>45391</v>
+      </c>
+      <c r="B37" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="7">
+        <v>3</v>
+      </c>
+      <c r="E37" s="7">
+        <v>861</v>
+      </c>
+      <c r="F37" s="7">
+        <v>861</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1">
-        <v>45439</v>
+        <v>45489</v>
       </c>
       <c r="B1" s="1">
         <v>15874</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="F1" s="1">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>45438</v>
+        <v>45487</v>
       </c>
       <c r="B2" s="1">
         <v>15874</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>219</v>
+        <v>389</v>
       </c>
       <c r="F2" s="1">
-        <v>219</v>
+        <v>389</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>8</v>
@@ -4860,28 +6547,28 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>45437</v>
+        <v>45486</v>
       </c>
       <c r="B3" s="1">
         <v>15874</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>734</v>
+        <v>553</v>
       </c>
       <c r="F3" s="1">
-        <v>734</v>
+        <v>553</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>10</v>
@@ -4896,921 +6583,3949 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>45435</v>
+        <v>45485</v>
       </c>
       <c r="B4" s="1">
         <v>15874</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>847</v>
+        <v>522</v>
       </c>
       <c r="F4" s="1">
-        <v>847</v>
+        <v>522</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="4">
         <f>SUM(E:E)</f>
-        <v>20093</v>
+        <v>21282.9</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>45431</v>
+        <v>45484</v>
       </c>
       <c r="B5" s="1">
         <v>15874</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>145.9</v>
+        <v>558</v>
       </c>
       <c r="F5" s="1">
-        <v>145.9</v>
+        <v>558</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="5">
         <f>M2+M3-O3-M4</f>
-        <v>-93</v>
+        <v>-1282.9</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>45428</v>
+        <v>45483</v>
       </c>
       <c r="B6" s="1">
         <v>15874</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>711</v>
+        <v>278</v>
       </c>
       <c r="F6" s="1">
-        <v>711</v>
+        <v>278</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>141</v>
+        <v>194</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="3">
-        <v>85.46</v>
+        <v>-7.54</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>45427</v>
+        <v>45482</v>
       </c>
       <c r="B7" s="1">
         <v>15874</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>432</v>
+        <v>530</v>
       </c>
       <c r="F7" s="1">
-        <v>432</v>
+        <v>530</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>-7.54000000000001</v>
+        <v>-1290.44</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>45426</v>
+        <v>45481</v>
       </c>
       <c r="B8" s="1">
         <v>15874</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>745</v>
+        <v>237</v>
       </c>
       <c r="F8" s="1">
-        <v>745</v>
+        <v>237</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>45425</v>
+        <v>45480</v>
       </c>
       <c r="B9" s="1">
         <v>15874</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>665</v>
+        <v>248</v>
       </c>
       <c r="F9" s="1">
-        <v>665</v>
+        <v>248</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>45424</v>
+        <v>45479</v>
       </c>
       <c r="B10" s="1">
         <v>15874</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="F10" s="1">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>45423</v>
+        <v>45478</v>
       </c>
       <c r="B11" s="1">
         <v>15874</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>437.9</v>
+        <v>908</v>
       </c>
       <c r="F11" s="1">
-        <v>437.9</v>
+        <v>908</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>45422</v>
+        <v>45477</v>
       </c>
       <c r="B12" s="1">
         <v>15874</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>622</v>
+        <v>1055</v>
       </c>
       <c r="F12" s="1">
-        <v>622</v>
+        <v>1055</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>45421</v>
+        <v>45476</v>
       </c>
       <c r="B13" s="1">
         <v>15874</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>557</v>
+        <v>327</v>
       </c>
       <c r="F13" s="1">
-        <v>557</v>
+        <v>327</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>45420</v>
+        <v>45475</v>
       </c>
       <c r="B14" s="1">
         <v>15874</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>526.7</v>
+        <v>213</v>
       </c>
       <c r="F14" s="1">
-        <v>526.7</v>
+        <v>213</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>45419</v>
+        <v>45474</v>
       </c>
       <c r="B15" s="1">
         <v>15874</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>1143</v>
+        <v>458</v>
       </c>
       <c r="F15" s="1">
-        <v>1143</v>
+        <v>458</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>45418</v>
+        <v>45471</v>
       </c>
       <c r="B16" s="1">
         <v>15874</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>852.9</v>
+        <v>167</v>
       </c>
       <c r="F16" s="1">
-        <v>852.9</v>
+        <v>167</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>149</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>45417</v>
+        <v>45470</v>
       </c>
       <c r="B17" s="1">
         <v>15874</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="D17" s="1">
         <v>3</v>
       </c>
       <c r="E17" s="1">
-        <v>367</v>
+        <v>237</v>
       </c>
       <c r="F17" s="1">
-        <v>367</v>
+        <v>237</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>45416</v>
+        <v>45469</v>
       </c>
       <c r="B18" s="1">
         <v>15874</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>622</v>
+        <v>175</v>
       </c>
       <c r="F18" s="1">
-        <v>622</v>
+        <v>175</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>45415</v>
+        <v>45468</v>
       </c>
       <c r="B19" s="1">
         <v>15874</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>479</v>
+        <v>580</v>
       </c>
       <c r="F19" s="1">
-        <v>479</v>
+        <v>580</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>45414</v>
+        <v>45466</v>
       </c>
       <c r="B20" s="1">
         <v>15874</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>731</v>
+        <v>308</v>
       </c>
       <c r="F20" s="1">
-        <v>731</v>
+        <v>308</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>45413</v>
+        <v>45465</v>
       </c>
       <c r="B21" s="1">
         <v>15874</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>613</v>
+        <v>328</v>
       </c>
       <c r="F21" s="1">
-        <v>613</v>
+        <v>328</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>45412</v>
+        <v>45464</v>
       </c>
       <c r="B22" s="1">
         <v>15874</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>276</v>
+        <v>948</v>
       </c>
       <c r="F22" s="1">
-        <v>276</v>
+        <v>948</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1">
-        <v>45411</v>
+        <v>45463</v>
       </c>
       <c r="B23" s="1">
         <v>15874</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
       </c>
       <c r="E23" s="1">
-        <v>218.8</v>
+        <v>534</v>
       </c>
       <c r="F23" s="1">
-        <v>218.8</v>
+        <v>534</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>45410</v>
+        <v>45462</v>
       </c>
       <c r="B24" s="1">
         <v>15874</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="F24" s="1">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1">
-        <v>45409</v>
+        <v>45461</v>
       </c>
       <c r="B25" s="1">
         <v>15874</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>849</v>
+        <v>762.9</v>
       </c>
       <c r="F25" s="1">
-        <v>849</v>
+        <v>762.9</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1">
-        <v>45408</v>
+        <v>45460</v>
       </c>
       <c r="B26" s="1">
         <v>15874</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1">
-        <v>253</v>
+        <v>432</v>
       </c>
       <c r="F26" s="1">
-        <v>253</v>
+        <v>432</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1">
-        <v>45407</v>
+        <v>45459</v>
       </c>
       <c r="B27" s="1">
         <v>15874</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="1">
-        <v>658</v>
+        <v>390</v>
       </c>
       <c r="F27" s="1">
-        <v>658</v>
+        <v>390</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1">
-        <v>45406</v>
+        <v>45458</v>
       </c>
       <c r="B28" s="1">
         <v>15874</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1">
-        <v>525.9</v>
+        <v>415</v>
       </c>
       <c r="F28" s="1">
-        <v>525.9</v>
+        <v>415</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1">
-        <v>45405</v>
+        <v>45457</v>
       </c>
       <c r="B29" s="1">
         <v>15874</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="D29" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1">
-        <v>508</v>
+        <v>135</v>
       </c>
       <c r="F29" s="1">
-        <v>508</v>
+        <v>135</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>45403</v>
+        <v>45456</v>
       </c>
       <c r="B30" s="1">
         <v>15874</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>225.9</v>
+        <v>340</v>
       </c>
       <c r="F30" s="1">
-        <v>225.9</v>
+        <v>340</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1">
-        <v>45402</v>
+        <v>45455</v>
       </c>
       <c r="B31" s="1">
         <v>15874</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="D31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>867</v>
+        <v>208</v>
       </c>
       <c r="F31" s="1">
-        <v>867</v>
+        <v>208</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1">
-        <v>45401</v>
+        <v>45454</v>
       </c>
       <c r="B32" s="1">
         <v>15874</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="D32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="1">
-        <v>748</v>
+        <v>537</v>
       </c>
       <c r="F32" s="1">
-        <v>748</v>
+        <v>537</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1">
-        <v>45400</v>
+        <v>45453</v>
       </c>
       <c r="B33" s="1">
         <v>15874</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
       <c r="D33" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>140</v>
+        <v>790</v>
       </c>
       <c r="F33" s="1">
-        <v>140</v>
+        <v>790</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1">
-        <v>45399</v>
+        <v>45452</v>
       </c>
       <c r="B34" s="1">
         <v>15874</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="D34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>187</v>
+        <v>408</v>
       </c>
       <c r="F34" s="1">
-        <v>187</v>
+        <v>408</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1">
-        <v>45395</v>
+        <v>45451</v>
       </c>
       <c r="B35" s="1">
         <v>15874</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="1">
-        <v>347</v>
+        <v>597</v>
       </c>
       <c r="F35" s="1">
-        <v>347</v>
+        <v>597</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1">
-        <v>45392</v>
+        <v>45450</v>
       </c>
       <c r="B36" s="1">
         <v>15874</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="D36" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>885</v>
+        <v>768</v>
       </c>
       <c r="F36" s="1">
-        <v>885</v>
+        <v>768</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1">
-        <v>45391</v>
+        <v>45449</v>
       </c>
       <c r="B37" s="1">
         <v>15874</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
+        <v>352</v>
+      </c>
+      <c r="F37" s="1">
+        <v>352</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B38" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>395</v>
+      </c>
+      <c r="F38" s="1">
+        <v>395</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B39" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>485</v>
+      </c>
+      <c r="F39" s="1">
+        <v>485</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>326</v>
+      </c>
+      <c r="F40" s="1">
+        <v>326</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>45445</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>855</v>
+      </c>
+      <c r="F41" s="1">
+        <v>855</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>447</v>
+      </c>
+      <c r="F42" s="1">
+        <v>447</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B43" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>676</v>
+      </c>
+      <c r="F43" s="1">
+        <v>676</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B44" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" s="1">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>248</v>
+      </c>
+      <c r="F44" s="1">
+        <v>248</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B45" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>570</v>
+      </c>
+      <c r="F45" s="1">
+        <v>570</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B46" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>469</v>
+      </c>
+      <c r="F46" s="1">
+        <v>469</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="13" max="13" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B1" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>371</v>
+      </c>
+      <c r="F1" s="1">
+        <v>371</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1088</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1088</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>45552</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>669</v>
+      </c>
+      <c r="F3" s="1">
+        <v>669</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>45550</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>279</v>
+      </c>
+      <c r="F4" s="1">
+        <v>279</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(E:E)</f>
+        <v>30241.9</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>45549</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>327</v>
+      </c>
+      <c r="F5" s="1">
+        <v>327</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="5">
+        <f>M2+M3-O3-M4</f>
+        <v>-241.900000000001</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>233</v>
+      </c>
+      <c r="F6" s="1">
+        <v>233</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-1290.44</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>243</v>
+      </c>
+      <c r="F7" s="1">
+        <v>243</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>-1532.34</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>664</v>
+      </c>
+      <c r="F8" s="1">
+        <v>664</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B9" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>384</v>
+      </c>
+      <c r="F9" s="1">
+        <v>384</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>45542</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>109</v>
+      </c>
+      <c r="F10" s="1">
+        <v>109</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>838</v>
+      </c>
+      <c r="F11" s="1">
+        <v>838</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>699</v>
+      </c>
+      <c r="F12" s="1">
+        <v>699</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>313</v>
+      </c>
+      <c r="F13" s="1">
+        <v>313</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>503.9</v>
+      </c>
+      <c r="F14" s="1">
+        <v>503.9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>748</v>
+      </c>
+      <c r="F15" s="1">
+        <v>748</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>948</v>
+      </c>
+      <c r="F16" s="1">
+        <v>948</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1410</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1410</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>927</v>
+      </c>
+      <c r="F18" s="1">
+        <v>927</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>552</v>
+      </c>
+      <c r="F19" s="1">
+        <v>552</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>45529</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1">
+        <v>498</v>
+      </c>
+      <c r="F20" s="1">
+        <v>498</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>45528</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>729</v>
+      </c>
+      <c r="F21" s="1">
+        <v>729</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>545</v>
+      </c>
+      <c r="F22" s="1">
+        <v>545</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>378</v>
+      </c>
+      <c r="F23" s="1">
+        <v>378</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>908</v>
+      </c>
+      <c r="F24" s="1">
+        <v>908</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>766</v>
+      </c>
+      <c r="F25" s="1">
+        <v>766</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>45522</v>
+      </c>
+      <c r="B26" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1033</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1033</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>45521</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>220</v>
+      </c>
+      <c r="F27" s="1">
+        <v>220</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>388</v>
+      </c>
+      <c r="F28" s="1">
+        <v>388</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>797</v>
+      </c>
+      <c r="F29" s="1">
+        <v>797</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>674</v>
+      </c>
+      <c r="F30" s="1">
+        <v>674</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>177</v>
+      </c>
+      <c r="F31" s="1">
+        <v>177</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>753</v>
+      </c>
+      <c r="F32" s="1">
+        <v>753</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>45515</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>656</v>
+      </c>
+      <c r="F33" s="1">
+        <v>656</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>45514</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1396</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1396</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>387</v>
+      </c>
+      <c r="F35" s="1">
+        <v>387</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1129</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1129</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B37" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>433</v>
+      </c>
+      <c r="F37" s="1">
+        <v>433</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>45508</v>
+      </c>
+      <c r="B38" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>399</v>
+      </c>
+      <c r="F38" s="1">
+        <v>399</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>45507</v>
+      </c>
+      <c r="B39" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>827</v>
+      </c>
+      <c r="F39" s="1">
+        <v>827</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>521</v>
+      </c>
+      <c r="F40" s="1">
+        <v>521</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>567</v>
+      </c>
+      <c r="F41" s="1">
+        <v>567</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>424</v>
+      </c>
+      <c r="F42" s="1">
+        <v>424</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B43" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>465</v>
+      </c>
+      <c r="F43" s="1">
+        <v>465</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B44" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>186</v>
+      </c>
+      <c r="F44" s="1">
+        <v>186</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>45501</v>
+      </c>
+      <c r="B45" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>930</v>
+      </c>
+      <c r="F45" s="1">
+        <v>930</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>45500</v>
+      </c>
+      <c r="B46" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="1">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1">
+        <v>352</v>
+      </c>
+      <c r="F46" s="1">
+        <v>352</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B47" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D47" s="1">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>540</v>
+      </c>
+      <c r="F47" s="1">
+        <v>540</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B48" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>186</v>
+      </c>
+      <c r="F48" s="1">
+        <v>186</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B49" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>580</v>
+      </c>
+      <c r="F49" s="1">
+        <v>580</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B50" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>330</v>
+      </c>
+      <c r="F50" s="1">
+        <v>330</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B51" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>288</v>
+      </c>
+      <c r="F51" s="1">
+        <v>288</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>45494</v>
+      </c>
+      <c r="B52" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>285</v>
+      </c>
+      <c r="F52" s="1">
+        <v>285</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B53" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1">
+        <v>189</v>
+      </c>
+      <c r="F53" s="1">
+        <v>189</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="13" max="13" width="9.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B1" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>609</v>
+      </c>
+      <c r="F1" s="1">
+        <v>609</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B2" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>847</v>
+      </c>
+      <c r="F2" s="1">
+        <v>847</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2">
+        <v>30000</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>310</v>
+      </c>
+      <c r="F3" s="1">
+        <v>310</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B4" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>227</v>
+      </c>
+      <c r="F4" s="1">
+        <v>227</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(E:E)</f>
+        <v>31575</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>45613</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>918</v>
+      </c>
+      <c r="F5" s="1">
+        <v>918</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="5">
+        <f>M2+M3-O3-M4</f>
+        <v>-1575</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>604</v>
+      </c>
+      <c r="F6" s="1">
+        <v>604</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-1532.34</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B7" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>873</v>
+      </c>
+      <c r="F7" s="1">
+        <v>873</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>-3107.34</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
         <v>184</v>
       </c>
+      <c r="F8" s="1">
+        <v>184</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B9" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>346</v>
+      </c>
+      <c r="F9" s="1">
+        <v>346</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>705</v>
+      </c>
+      <c r="F10" s="1">
+        <v>705</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>478</v>
+      </c>
+      <c r="F11" s="1">
+        <v>478</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>45605</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>900</v>
+      </c>
+      <c r="F12" s="1">
+        <v>900</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>990</v>
+      </c>
+      <c r="F13" s="1">
+        <v>990</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1049</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1049</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>45599</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>406</v>
+      </c>
+      <c r="F15" s="1">
+        <v>406</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1022</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1022</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>45595</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>318</v>
+      </c>
+      <c r="F17" s="1">
+        <v>318</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>45594</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1058</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1058</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>45593</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>81</v>
+      </c>
+      <c r="F19" s="1">
+        <v>81</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>45591</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>234</v>
+      </c>
+      <c r="F20" s="1">
+        <v>234</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>45590</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>986</v>
+      </c>
+      <c r="F21" s="1">
+        <v>986</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>45589</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>308</v>
+      </c>
+      <c r="F22" s="1">
+        <v>308</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>45588</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>862</v>
+      </c>
+      <c r="F23" s="1">
+        <v>862</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>45587</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1">
+        <v>98</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>45586</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>375</v>
+      </c>
+      <c r="F25" s="1">
+        <v>375</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>45585</v>
+      </c>
+      <c r="B26" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1452</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1452</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>45584</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>566</v>
+      </c>
+      <c r="F27" s="1">
+        <v>566</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>45583</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>348</v>
+      </c>
+      <c r="F28" s="1">
+        <v>348</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>45582</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1">
+        <v>843</v>
+      </c>
+      <c r="F29" s="1">
+        <v>843</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>45581</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>595</v>
+      </c>
+      <c r="F30" s="1">
+        <v>595</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>45580</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1">
+        <v>525</v>
+      </c>
+      <c r="F31" s="1">
+        <v>525</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>45579</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>299</v>
+      </c>
+      <c r="F32" s="1">
+        <v>299</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>45578</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>828</v>
+      </c>
+      <c r="F33" s="1">
+        <v>828</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>45577</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1099</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1099</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>45576</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1">
+        <v>50</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>45575</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>929</v>
+      </c>
+      <c r="F36" s="1">
+        <v>929</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>45574</v>
+      </c>
+      <c r="B37" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="D37" s="1">
         <v>3</v>
       </c>
       <c r="E37" s="1">
-        <v>861</v>
+        <v>1156</v>
       </c>
       <c r="F37" s="1">
-        <v>861</v>
+        <v>1156</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>181</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>45573</v>
+      </c>
+      <c r="B38" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1373</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1373</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>45572</v>
+      </c>
+      <c r="B39" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>817</v>
+      </c>
+      <c r="F39" s="1">
+        <v>817</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>45571</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
+        <v>605</v>
+      </c>
+      <c r="F40" s="1">
+        <v>605</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>45569</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>536</v>
+      </c>
+      <c r="F41" s="1">
+        <v>536</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>45568</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>943</v>
+      </c>
+      <c r="F42" s="1">
+        <v>943</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>45567</v>
+      </c>
+      <c r="B43" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>778</v>
+      </c>
+      <c r="F43" s="1">
+        <v>778</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B44" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>286</v>
+      </c>
+      <c r="F44" s="1">
+        <v>286</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>45564</v>
+      </c>
+      <c r="B45" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>510</v>
+      </c>
+      <c r="F45" s="1">
+        <v>510</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>45563</v>
+      </c>
+      <c r="B46" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>79</v>
+      </c>
+      <c r="F46" s="1">
+        <v>79</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B47" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1307</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1307</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B48" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>461</v>
+      </c>
+      <c r="F48" s="1">
+        <v>461</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B49" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>402</v>
+      </c>
+      <c r="F49" s="1">
+        <v>402</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/s_d/麻吉4月.xlsx
+++ b/s_d/麻吉4月.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="818">
   <si>
     <t>202004011800111568298</t>
   </si>
@@ -2283,6 +2283,165 @@
   </si>
   <si>
     <t>2020-04-13 09:22</t>
+  </si>
+  <si>
+    <t>202004141823331715649</t>
+  </si>
+  <si>
+    <t>2020-04-14 18:23</t>
+  </si>
+  <si>
+    <t>202004141824351584335</t>
+  </si>
+  <si>
+    <t>2020-04-14 18:24</t>
+  </si>
+  <si>
+    <t>202004141822321488114</t>
+  </si>
+  <si>
+    <t>2020-04-14 18:22</t>
+  </si>
+  <si>
+    <t>202004141823431774254</t>
+  </si>
+  <si>
+    <t>202004141821411505849</t>
+  </si>
+  <si>
+    <t>2020-04-14 18:21</t>
+  </si>
+  <si>
+    <t>202004141821291996360</t>
+  </si>
+  <si>
+    <t>202004141824111281836</t>
+  </si>
+  <si>
+    <t>202004141819521346880</t>
+  </si>
+  <si>
+    <t>2020-04-14 18:19</t>
+  </si>
+  <si>
+    <t>202004141813521807014</t>
+  </si>
+  <si>
+    <t>2020-04-14 18:13</t>
+  </si>
+  <si>
+    <t>202004141820371914838</t>
+  </si>
+  <si>
+    <t>2020-04-14 18:20</t>
+  </si>
+  <si>
+    <t>202004141815111531773</t>
+  </si>
+  <si>
+    <t>2020-04-14 18:15</t>
+  </si>
+  <si>
+    <t>202004141745201762804</t>
+  </si>
+  <si>
+    <t>2020-04-14 17:45</t>
+  </si>
+  <si>
+    <t>202004141815441921389</t>
+  </si>
+  <si>
+    <t>202004141744561163378</t>
+  </si>
+  <si>
+    <t>202004141744421161088</t>
+  </si>
+  <si>
+    <t>2020-04-14 17:44</t>
+  </si>
+  <si>
+    <t>202004141818491138808</t>
+  </si>
+  <si>
+    <t>2020-04-14 18:18</t>
+  </si>
+  <si>
+    <t>202004141744271424225</t>
+  </si>
+  <si>
+    <t>202004141744161351830</t>
+  </si>
+  <si>
+    <t>202004141820061351588</t>
+  </si>
+  <si>
+    <t>202004141822041377543</t>
+  </si>
+  <si>
+    <t>202004141744091747738</t>
+  </si>
+  <si>
+    <t>202004141820271755202</t>
+  </si>
+  <si>
+    <t>202004141744011929516</t>
+  </si>
+  <si>
+    <t>202004141742541603336</t>
+  </si>
+  <si>
+    <t>2020-04-14 17:42</t>
+  </si>
+  <si>
+    <t>202004141822491331411</t>
+  </si>
+  <si>
+    <t>202004141742441792714</t>
+  </si>
+  <si>
+    <t>202004141742371919565</t>
+  </si>
+  <si>
+    <t>202004141557261739155</t>
+  </si>
+  <si>
+    <t>2020-04-14 15:57</t>
+  </si>
+  <si>
+    <t>202004141557071265052</t>
+  </si>
+  <si>
+    <t>202004141556521508720</t>
+  </si>
+  <si>
+    <t>2020-04-14 15:56</t>
+  </si>
+  <si>
+    <t>202004141432021476882</t>
+  </si>
+  <si>
+    <t>2020-04-14 14:32</t>
+  </si>
+  <si>
+    <t>202004141431481947386</t>
+  </si>
+  <si>
+    <t>2020-04-14 14:31</t>
+  </si>
+  <si>
+    <t>202004141431331503026</t>
+  </si>
+  <si>
+    <t>202004141015521823872</t>
+  </si>
+  <si>
+    <t>2020-04-14 10:15</t>
+  </si>
+  <si>
+    <t>202004141015371592434</t>
+  </si>
+  <si>
+    <t>202004141015201144516</t>
   </si>
   <si>
     <t>202004141007371453010</t>
@@ -2329,10 +2488,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2353,6 +2512,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2361,7 +2536,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2383,38 +2589,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2428,32 +2640,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2462,36 +2651,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2524,48 +2683,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2578,13 +2695,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2596,7 +2737,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2614,13 +2767,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2632,61 +2839,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2711,6 +2870,32 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2742,8 +2927,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2763,17 +2948,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2792,26 +2971,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2820,10 +2979,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2832,133 +2991,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8847,54 +9006,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1">
+      <c r="A1" s="7">
         <v>45916</v>
       </c>
-      <c r="B1" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
         <v>599</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="7">
         <v>599</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>45915</v>
       </c>
-      <c r="B2" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
         <v>609</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>609</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>695</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -8905,28 +9064,28 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>45914</v>
       </c>
-      <c r="B3" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>618</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>618</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>697</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -8941,28 +9100,28 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>45913</v>
       </c>
-      <c r="B4" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
         <v>507</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>507</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>697</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -8976,28 +9135,28 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="1">
+      <c r="A5" s="7">
         <v>45912</v>
       </c>
-      <c r="B5" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
         <v>460</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>460</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>700</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -9011,28 +9170,28 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>45911</v>
       </c>
-      <c r="B6" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
         <v>870</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>870</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>702</v>
       </c>
       <c r="L6" s="3" t="s">
@@ -9045,28 +9204,28 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="1">
+      <c r="A7" s="7">
         <v>45910</v>
       </c>
-      <c r="B7" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="7">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="7">
         <v>416</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>416</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>702</v>
       </c>
       <c r="L7" s="3" t="s">
@@ -9080,756 +9239,756 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="A8" s="7">
         <v>45909</v>
       </c>
-      <c r="B8" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
         <v>499</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>499</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="A9" s="7">
         <v>45908</v>
       </c>
-      <c r="B9" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>706</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>598</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="7">
         <v>598</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="1">
+      <c r="A10" s="7">
         <v>45907</v>
       </c>
-      <c r="B10" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="7">
         <v>758</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="7">
         <v>758</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="1">
+      <c r="A11" s="7">
         <v>45906</v>
       </c>
-      <c r="B11" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
         <v>208</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="7">
         <v>208</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="7">
         <v>45905</v>
       </c>
-      <c r="B12" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="7">
         <v>4</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="7">
         <v>752</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="7">
         <v>752</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="A13" s="7">
         <v>45904</v>
       </c>
-      <c r="B13" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>714</v>
       </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
         <v>288</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="7">
         <v>288</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="1">
+      <c r="A14" s="7">
         <v>45902</v>
       </c>
-      <c r="B14" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
         <v>1100</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="7">
         <v>1100</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="1">
+      <c r="A15" s="7">
         <v>45901</v>
       </c>
-      <c r="B15" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="7">
         <v>229</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="7">
         <v>229</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="1">
+      <c r="A16" s="7">
         <v>45900</v>
       </c>
-      <c r="B16" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
         <v>537</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="7">
         <v>537</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1">
+      <c r="A17" s="7">
         <v>45898</v>
       </c>
-      <c r="B17" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>719</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
         <v>539</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="7">
         <v>539</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="A18" s="7">
         <v>45897</v>
       </c>
-      <c r="B18" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
         <v>672</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="7">
         <v>672</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1">
+      <c r="A19" s="7">
         <v>45896</v>
       </c>
-      <c r="B19" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
         <v>720</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="7">
         <v>720</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="1">
+      <c r="A20" s="7">
         <v>45894</v>
       </c>
-      <c r="B20" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
         <v>537</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="7">
         <v>537</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="1">
+      <c r="A21" s="7">
         <v>45893</v>
       </c>
-      <c r="B21" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
         <v>438</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="7">
         <v>438</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="1">
+      <c r="A22" s="7">
         <v>45891</v>
       </c>
-      <c r="B22" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
         <v>403</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="7">
         <v>403</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="1">
+      <c r="A23" s="7">
         <v>45890</v>
       </c>
-      <c r="B23" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
         <v>423</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="7">
         <v>423</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="1">
+      <c r="A24" s="7">
         <v>45888</v>
       </c>
-      <c r="B24" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
         <v>744</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="7">
         <v>744</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="1">
+      <c r="A25" s="7">
         <v>45886</v>
       </c>
-      <c r="B25" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>732</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="7">
         <v>2</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="7">
         <v>339</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="7">
         <v>339</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="1">
+      <c r="A26" s="7">
         <v>45881</v>
       </c>
-      <c r="B26" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
         <v>288</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="7">
         <v>288</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="1">
+      <c r="A27" s="7">
         <v>45878</v>
       </c>
-      <c r="B27" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
         <v>509</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="7">
         <v>509</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="1">
+      <c r="A28" s="7">
         <v>45877</v>
       </c>
-      <c r="B28" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="7">
         <v>2</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="7">
         <v>326</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="7">
         <v>326</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="1">
+      <c r="A29" s="7">
         <v>45871</v>
       </c>
-      <c r="B29" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
         <v>395</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="7">
         <v>395</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="1">
+      <c r="A30" s="7">
         <v>45870</v>
       </c>
-      <c r="B30" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
         <v>395</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="7">
         <v>395</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="1">
+      <c r="A31" s="7">
         <v>45869</v>
       </c>
-      <c r="B31" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
         <v>285</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="7">
         <v>285</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="1">
+      <c r="A32" s="7">
         <v>45868</v>
       </c>
-      <c r="B32" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
         <v>562</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="7">
         <v>562</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="1">
+      <c r="A33" s="7">
         <v>45867</v>
       </c>
-      <c r="B33" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="7">
         <v>4</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="7">
         <v>352</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="7">
         <v>352</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1">
+      <c r="A34" s="7">
         <v>45866</v>
       </c>
-      <c r="B34" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="7">
         <v>2</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="7">
         <v>326</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="7">
         <v>326</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1">
+      <c r="A35" s="7">
         <v>45865</v>
       </c>
-      <c r="B35" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
+      <c r="D35" s="7">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7">
         <v>264</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="7">
         <v>264</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="1">
+      <c r="A36" s="7">
         <v>45864</v>
       </c>
-      <c r="B36" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="E36" s="1">
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
         <v>370</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="7">
         <v>370</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>751</v>
       </c>
     </row>
@@ -9842,17 +10001,17 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1">
-        <v>45925</v>
+        <v>45976</v>
       </c>
       <c r="B1" s="1">
         <v>15874</v>
@@ -9861,13 +10020,13 @@
         <v>752</v>
       </c>
       <c r="D1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1">
-        <v>395</v>
+        <v>729</v>
       </c>
       <c r="F1" s="1">
-        <v>395</v>
+        <v>729</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -9878,7 +10037,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>45924</v>
+        <v>45975</v>
       </c>
       <c r="B2" s="1">
         <v>15874</v>
@@ -9887,19 +10046,19 @@
         <v>754</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="F2" s="1">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>8</v>
@@ -9912,28 +10071,28 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>45923</v>
+        <v>45973</v>
       </c>
       <c r="B3" s="1">
         <v>15874</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>660</v>
+        <v>298</v>
       </c>
       <c r="F3" s="1">
-        <v>660</v>
+        <v>298</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>10</v>
@@ -9946,92 +10105,92 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>45922</v>
+        <v>45972</v>
       </c>
       <c r="B4" s="1">
         <v>15874</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>790</v>
+        <v>900</v>
       </c>
       <c r="F4" s="1">
-        <v>790</v>
+        <v>900</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="4">
         <f>SUM(E:E)</f>
-        <v>4580</v>
+        <v>23629</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>45921</v>
+        <v>45969</v>
       </c>
       <c r="B5" s="1">
         <v>15874</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>440</v>
+        <v>155</v>
       </c>
       <c r="F5" s="1">
-        <v>440</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="5">
         <f>M2+M3-O3-M4</f>
-        <v>19420</v>
+        <v>371</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>45920</v>
+        <v>45967</v>
       </c>
       <c r="B6" s="1">
         <v>15874</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>395</v>
+        <v>680</v>
       </c>
       <c r="F6" s="1">
-        <v>395</v>
+        <v>680</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>1</v>
@@ -10050,89 +10209,1025 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>45919</v>
+        <v>45966</v>
       </c>
       <c r="B7" s="1">
         <v>15874</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>424</v>
+        <v>716</v>
       </c>
       <c r="F7" s="1">
-        <v>424</v>
+        <v>716</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>19080.56</v>
+        <v>31.56</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>45918</v>
+        <v>45965</v>
       </c>
       <c r="B8" s="1">
         <v>15874</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>450</v>
+        <v>760</v>
       </c>
       <c r="F8" s="1">
-        <v>450</v>
+        <v>760</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B9" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>266</v>
+      </c>
+      <c r="F9" s="1">
+        <v>266</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>45963</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>761</v>
+      </c>
+      <c r="F10" s="1">
+        <v>761</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B11" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>696</v>
+      </c>
+      <c r="F11" s="1">
+        <v>696</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>120</v>
+      </c>
+      <c r="F12" s="1">
+        <v>120</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>637</v>
+      </c>
+      <c r="F13" s="1">
+        <v>637</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>495</v>
+      </c>
+      <c r="F14" s="1">
+        <v>495</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B15" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>470</v>
+      </c>
+      <c r="F15" s="1">
+        <v>470</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>45956</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>342</v>
+      </c>
+      <c r="F16" s="1">
+        <v>342</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B17" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>280</v>
+      </c>
+      <c r="F17" s="1">
+        <v>280</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B18" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>472</v>
+      </c>
+      <c r="F18" s="1">
+        <v>472</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>973</v>
+      </c>
+      <c r="F19" s="1">
+        <v>973</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>715</v>
+      </c>
+      <c r="F20" s="1">
+        <v>715</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>45949</v>
+      </c>
+      <c r="B21" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>766</v>
+      </c>
+      <c r="F21" s="1">
+        <v>766</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>45948</v>
+      </c>
+      <c r="B22" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>252</v>
+      </c>
+      <c r="F22" s="1">
+        <v>252</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>174</v>
+      </c>
+      <c r="F23" s="1">
+        <v>174</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B24" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>454</v>
+      </c>
+      <c r="F24" s="1">
+        <v>454</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B25" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1140</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1140</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B26" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>557</v>
+      </c>
+      <c r="F26" s="1">
+        <v>557</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B27" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>428</v>
+      </c>
+      <c r="F27" s="1">
+        <v>428</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>45942</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>290</v>
+      </c>
+      <c r="F28" s="1">
+        <v>290</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>45941</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>576</v>
+      </c>
+      <c r="F29" s="1">
+        <v>576</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>398</v>
+      </c>
+      <c r="F30" s="1">
+        <v>398</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>45935</v>
+      </c>
+      <c r="B31" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>490</v>
+      </c>
+      <c r="F31" s="1">
+        <v>490</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>45933</v>
+      </c>
+      <c r="B32" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
+        <v>398</v>
+      </c>
+      <c r="F32" s="1">
+        <v>398</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>978</v>
+      </c>
+      <c r="F33" s="1">
+        <v>978</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>45928</v>
+      </c>
+      <c r="B34" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>330</v>
+      </c>
+      <c r="F34" s="1">
+        <v>330</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>45927</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>570</v>
+      </c>
+      <c r="F35" s="1">
+        <v>570</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B36" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>216</v>
+      </c>
+      <c r="F36" s="1">
+        <v>216</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>45925</v>
+      </c>
+      <c r="B37" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>395</v>
+      </c>
+      <c r="F37" s="1">
+        <v>395</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B38" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>576</v>
+      </c>
+      <c r="F38" s="1">
+        <v>576</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B39" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>660</v>
+      </c>
+      <c r="F39" s="1">
+        <v>660</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>45922</v>
+      </c>
+      <c r="B40" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>790</v>
+      </c>
+      <c r="F40" s="1">
+        <v>790</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>45921</v>
+      </c>
+      <c r="B41" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
+        <v>440</v>
+      </c>
+      <c r="F41" s="1">
+        <v>440</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>45920</v>
+      </c>
+      <c r="B42" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>395</v>
+      </c>
+      <c r="F42" s="1">
+        <v>395</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B43" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>424</v>
+      </c>
+      <c r="F43" s="1">
+        <v>424</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B44" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>450</v>
+      </c>
+      <c r="F44" s="1">
+        <v>450</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
         <v>45917</v>
       </c>
-      <c r="B9" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="B45" s="1">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
         <v>450</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F45" s="1">
         <v>450</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>763</v>
+      <c r="G45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>816</v>
       </c>
     </row>
   </sheetData>

--- a/s_d/麻吉4月.xlsx
+++ b/s_d/麻吉4月.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="697" activeTab="13"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="697" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="4.1" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,15 @@
     <sheet name="4.12" sheetId="12" r:id="rId12"/>
     <sheet name="4.13" sheetId="13" r:id="rId13"/>
     <sheet name="4.14" sheetId="14" r:id="rId14"/>
+    <sheet name="4.15" sheetId="15" r:id="rId15"/>
+    <sheet name="4.16" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="901">
   <si>
     <t>202004011800111568298</t>
   </si>
@@ -2481,6 +2483,255 @@
   </si>
   <si>
     <t>202004140947271937057</t>
+  </si>
+  <si>
+    <t>202004152134351150999</t>
+  </si>
+  <si>
+    <t>2020-04-15 21:34</t>
+  </si>
+  <si>
+    <t>202004152134191457726</t>
+  </si>
+  <si>
+    <t>202004152134021185519</t>
+  </si>
+  <si>
+    <t>202004152130561652800</t>
+  </si>
+  <si>
+    <t>2020-04-15 21:31</t>
+  </si>
+  <si>
+    <t>202004152130301357816</t>
+  </si>
+  <si>
+    <t>2020-04-15 21:30</t>
+  </si>
+  <si>
+    <t>202004152130081672131</t>
+  </si>
+  <si>
+    <t>202004152129511275323</t>
+  </si>
+  <si>
+    <t>2020-04-15 21:29</t>
+  </si>
+  <si>
+    <t>202004151905221192546</t>
+  </si>
+  <si>
+    <t>2020-04-15 19:05</t>
+  </si>
+  <si>
+    <t>202004151905061809339</t>
+  </si>
+  <si>
+    <t>202004151904521291507</t>
+  </si>
+  <si>
+    <t>2020-04-15 19:04</t>
+  </si>
+  <si>
+    <t>202004151904351454970</t>
+  </si>
+  <si>
+    <t>202004151904091984337</t>
+  </si>
+  <si>
+    <t>202004151903481729517</t>
+  </si>
+  <si>
+    <t>2020-04-15 19:03</t>
+  </si>
+  <si>
+    <t>202004151903321491839</t>
+  </si>
+  <si>
+    <t>202004151903161515978</t>
+  </si>
+  <si>
+    <t>202004151903001911925</t>
+  </si>
+  <si>
+    <t>202004151902461237307</t>
+  </si>
+  <si>
+    <t>2020-04-15 19:02</t>
+  </si>
+  <si>
+    <t>202004151651361105117</t>
+  </si>
+  <si>
+    <t>2020-04-15 16:51</t>
+  </si>
+  <si>
+    <t>202004151651161762618</t>
+  </si>
+  <si>
+    <t>202004151651021910623</t>
+  </si>
+  <si>
+    <t>202004151650331728103</t>
+  </si>
+  <si>
+    <t>2020-04-15 16:50</t>
+  </si>
+  <si>
+    <t>202004151650181711455</t>
+  </si>
+  <si>
+    <t>202004151649591441069</t>
+  </si>
+  <si>
+    <t>202004151309581388192</t>
+  </si>
+  <si>
+    <t>2020-04-15 13:10</t>
+  </si>
+  <si>
+    <t>202004151301291178993</t>
+  </si>
+  <si>
+    <t>2020-04-15 13:01</t>
+  </si>
+  <si>
+    <t>202004151301171992469</t>
+  </si>
+  <si>
+    <t>202004151154111811805</t>
+  </si>
+  <si>
+    <t>2020-04-15 11:54</t>
+  </si>
+  <si>
+    <t>202004151153581264973</t>
+  </si>
+  <si>
+    <t>202004151153071819060</t>
+  </si>
+  <si>
+    <t>2020-04-15 11:53</t>
+  </si>
+  <si>
+    <t>202004151151421862752</t>
+  </si>
+  <si>
+    <t>2020-04-15 11:51</t>
+  </si>
+  <si>
+    <t>202004161056541457410</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:56</t>
+  </si>
+  <si>
+    <t>202004161024461573875</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:24</t>
+  </si>
+  <si>
+    <t>202004161024021124813</t>
+  </si>
+  <si>
+    <t>202004161022091864650</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:22</t>
+  </si>
+  <si>
+    <t>202004161021041571014</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:21</t>
+  </si>
+  <si>
+    <t>202004161019261315656</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:19</t>
+  </si>
+  <si>
+    <t>202004161019071809904</t>
+  </si>
+  <si>
+    <t>202004161018091621480</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:18</t>
+  </si>
+  <si>
+    <t>202004161017041902156</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:17</t>
+  </si>
+  <si>
+    <t>202004161015091516296</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:15</t>
+  </si>
+  <si>
+    <t>202004161014351264384</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:14</t>
+  </si>
+  <si>
+    <t>202004161013001293590</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:13</t>
+  </si>
+  <si>
+    <t>202004161011351153287</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:11</t>
+  </si>
+  <si>
+    <t>202004161009581108648</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:10</t>
+  </si>
+  <si>
+    <t>202004161007291171040</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:07</t>
+  </si>
+  <si>
+    <t>202004161006451764251</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:06</t>
+  </si>
+  <si>
+    <t>202004161006231937059</t>
+  </si>
+  <si>
+    <t>202004161004271395072</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:04</t>
+  </si>
+  <si>
+    <t>202004161004051665659</t>
+  </si>
+  <si>
+    <t>202004161002421759041</t>
+  </si>
+  <si>
+    <t>2020-04-16 10:02</t>
+  </si>
+  <si>
+    <t>202004161002201522118</t>
+  </si>
+  <si>
+    <t>202004161002111322585</t>
   </si>
 </sst>
 </file>
@@ -2512,14 +2763,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -2527,16 +2770,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2544,30 +2779,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2588,6 +2800,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -2602,14 +2884,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2618,31 +2892,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2650,7 +2901,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2683,13 +2934,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2701,7 +2982,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,7 +3036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2731,43 +3066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2779,49 +3084,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2834,18 +3097,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2874,41 +3125,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2927,8 +3143,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2957,6 +3184,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2979,10 +3230,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2991,133 +3242,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5646,12 +5897,13 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="13" max="13" width="9.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5845,7 +6097,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="3">
-        <v>9304.06</v>
+        <v>10304.06</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -5880,7 +6132,7 @@
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>10.2600000000002</v>
+        <v>1010.26</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -6287,7 +6539,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6485,7 +6737,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="3">
-        <v>10.26</v>
+        <v>1010.26</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -6520,7 +6772,7 @@
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>-1.43999999999709</v>
+        <v>998.560000000003</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -7473,7 +7725,7 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7671,7 +7923,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="3">
-        <v>-1.44</v>
+        <v>998.56</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -7706,7 +7958,7 @@
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>-2404.44</v>
+        <v>-1404.44</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -8997,7 +9249,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9198,7 +9450,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="3">
-        <v>-2404.44</v>
+        <v>-1404.44</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -9233,7 +9485,7 @@
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>-339.44</v>
+        <v>660.56</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -10003,96 +10255,2180 @@
   <sheetPr/>
   <dimension ref="A1:O45"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7">
+        <v>45976</v>
+      </c>
+      <c r="B1" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1" s="7">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7">
+        <v>729</v>
+      </c>
+      <c r="F1" s="7">
+        <v>729</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7">
+        <v>45975</v>
+      </c>
+      <c r="B2" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>567</v>
+      </c>
+      <c r="F2" s="7">
+        <v>567</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2">
+        <v>24000</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7">
+        <v>45973</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>298</v>
+      </c>
+      <c r="F3" s="7">
+        <v>298</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="7">
+        <v>45972</v>
+      </c>
+      <c r="B4" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>900</v>
+      </c>
+      <c r="F4" s="7">
+        <v>900</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(E:E)</f>
+        <v>23629</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="7">
+        <v>45969</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>155</v>
+      </c>
+      <c r="F5" s="7">
+        <v>155</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="5">
+        <f>M2+M3-O3-M4</f>
+        <v>371</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="7">
+        <v>45967</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>680</v>
+      </c>
+      <c r="F6" s="7">
+        <v>680</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3">
+        <v>660.56</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="7">
+        <v>45966</v>
+      </c>
+      <c r="B7" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>716</v>
+      </c>
+      <c r="F7" s="7">
+        <v>716</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>1031.56</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
+        <v>45965</v>
+      </c>
+      <c r="B8" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>760</v>
+      </c>
+      <c r="F8" s="7">
+        <v>760</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>45964</v>
+      </c>
+      <c r="B9" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>266</v>
+      </c>
+      <c r="F9" s="7">
+        <v>266</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>45963</v>
+      </c>
+      <c r="B10" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>761</v>
+      </c>
+      <c r="F10" s="7">
+        <v>761</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>45962</v>
+      </c>
+      <c r="B11" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="D11" s="7">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>696</v>
+      </c>
+      <c r="F11" s="7">
+        <v>696</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
+        <v>45961</v>
+      </c>
+      <c r="B12" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>120</v>
+      </c>
+      <c r="F12" s="7">
+        <v>120</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>45960</v>
+      </c>
+      <c r="B13" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>637</v>
+      </c>
+      <c r="F13" s="7">
+        <v>637</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>45958</v>
+      </c>
+      <c r="B14" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>495</v>
+      </c>
+      <c r="F14" s="7">
+        <v>495</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>45957</v>
+      </c>
+      <c r="B15" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>470</v>
+      </c>
+      <c r="F15" s="7">
+        <v>470</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>45956</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>342</v>
+      </c>
+      <c r="F16" s="7">
+        <v>342</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>45954</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="D17" s="7">
+        <v>3</v>
+      </c>
+      <c r="E17" s="7">
+        <v>280</v>
+      </c>
+      <c r="F17" s="7">
+        <v>280</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
+        <v>45952</v>
+      </c>
+      <c r="B18" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>472</v>
+      </c>
+      <c r="F18" s="7">
+        <v>472</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>45951</v>
+      </c>
+      <c r="B19" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>973</v>
+      </c>
+      <c r="F19" s="7">
+        <v>973</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>45950</v>
+      </c>
+      <c r="B20" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="D20" s="7">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>715</v>
+      </c>
+      <c r="F20" s="7">
+        <v>715</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>45949</v>
+      </c>
+      <c r="B21" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>766</v>
+      </c>
+      <c r="F21" s="7">
+        <v>766</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>45948</v>
+      </c>
+      <c r="B22" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>252</v>
+      </c>
+      <c r="F22" s="7">
+        <v>252</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>45947</v>
+      </c>
+      <c r="B23" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>174</v>
+      </c>
+      <c r="F23" s="7">
+        <v>174</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7">
+        <v>45946</v>
+      </c>
+      <c r="B24" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>454</v>
+      </c>
+      <c r="F24" s="7">
+        <v>454</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>45945</v>
+      </c>
+      <c r="B25" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1140</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>45944</v>
+      </c>
+      <c r="B26" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>557</v>
+      </c>
+      <c r="F26" s="7">
+        <v>557</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7">
+        <v>45943</v>
+      </c>
+      <c r="B27" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>428</v>
+      </c>
+      <c r="F27" s="7">
+        <v>428</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7">
+        <v>45942</v>
+      </c>
+      <c r="B28" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>290</v>
+      </c>
+      <c r="F28" s="7">
+        <v>290</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7">
+        <v>45941</v>
+      </c>
+      <c r="B29" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>576</v>
+      </c>
+      <c r="F29" s="7">
+        <v>576</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7">
+        <v>45940</v>
+      </c>
+      <c r="B30" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>398</v>
+      </c>
+      <c r="F30" s="7">
+        <v>398</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>45935</v>
+      </c>
+      <c r="B31" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>490</v>
+      </c>
+      <c r="F31" s="7">
+        <v>490</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7">
+        <v>45933</v>
+      </c>
+      <c r="B32" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7">
+        <v>398</v>
+      </c>
+      <c r="F32" s="7">
+        <v>398</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7">
+        <v>45931</v>
+      </c>
+      <c r="B33" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="D33" s="7">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7">
+        <v>978</v>
+      </c>
+      <c r="F33" s="7">
+        <v>978</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="7">
+        <v>45928</v>
+      </c>
+      <c r="B34" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>330</v>
+      </c>
+      <c r="F34" s="7">
+        <v>330</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7">
+        <v>45927</v>
+      </c>
+      <c r="B35" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>570</v>
+      </c>
+      <c r="F35" s="7">
+        <v>570</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7">
+        <v>45926</v>
+      </c>
+      <c r="B36" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="D36" s="7">
+        <v>2</v>
+      </c>
+      <c r="E36" s="7">
+        <v>216</v>
+      </c>
+      <c r="F36" s="7">
+        <v>216</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7">
+        <v>45925</v>
+      </c>
+      <c r="B37" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>395</v>
+      </c>
+      <c r="F37" s="7">
+        <v>395</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7">
+        <v>45924</v>
+      </c>
+      <c r="B38" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>576</v>
+      </c>
+      <c r="F38" s="7">
+        <v>576</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7">
+        <v>45923</v>
+      </c>
+      <c r="B39" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7">
+        <v>660</v>
+      </c>
+      <c r="F39" s="7">
+        <v>660</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="7">
+        <v>45922</v>
+      </c>
+      <c r="B40" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="D40" s="7">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7">
+        <v>790</v>
+      </c>
+      <c r="F40" s="7">
+        <v>790</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="7">
+        <v>45921</v>
+      </c>
+      <c r="B41" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="D41" s="7">
+        <v>4</v>
+      </c>
+      <c r="E41" s="7">
+        <v>440</v>
+      </c>
+      <c r="F41" s="7">
+        <v>440</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="7">
+        <v>45920</v>
+      </c>
+      <c r="B42" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1</v>
+      </c>
+      <c r="E42" s="7">
+        <v>395</v>
+      </c>
+      <c r="F42" s="7">
+        <v>395</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="7">
+        <v>45919</v>
+      </c>
+      <c r="B43" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>424</v>
+      </c>
+      <c r="F43" s="7">
+        <v>424</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="7">
+        <v>45918</v>
+      </c>
+      <c r="B44" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>450</v>
+      </c>
+      <c r="F44" s="7">
+        <v>450</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="7">
+        <v>45917</v>
+      </c>
+      <c r="B45" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="D45" s="7">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <v>450</v>
+      </c>
+      <c r="F45" s="7">
+        <v>450</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="7">
+        <v>46012</v>
+      </c>
+      <c r="B1" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="D1" s="7">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7">
+        <v>338</v>
+      </c>
+      <c r="F1" s="7">
+        <v>338</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="7">
+        <v>46011</v>
+      </c>
+      <c r="B2" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>408</v>
+      </c>
+      <c r="F2" s="7">
+        <v>408</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7">
+        <v>46010</v>
+      </c>
+      <c r="B3" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>599</v>
+      </c>
+      <c r="F3" s="7">
+        <v>599</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="7">
+        <v>46008</v>
+      </c>
+      <c r="B4" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>192</v>
+      </c>
+      <c r="F4" s="7">
+        <v>192</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4">
+        <f>SUM(E:E)</f>
+        <v>14420</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="7">
+        <v>46007</v>
+      </c>
+      <c r="B5" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>570</v>
+      </c>
+      <c r="F5" s="7">
+        <v>570</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="5">
+        <f>M2+M3-O3-M4</f>
+        <v>5580</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="7">
+        <v>46006</v>
+      </c>
+      <c r="B6" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>288</v>
+      </c>
+      <c r="F6" s="7">
+        <v>288</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1031.56</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="7">
+        <v>46005</v>
+      </c>
+      <c r="B7" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>576</v>
+      </c>
+      <c r="F7" s="7">
+        <v>576</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="6">
+        <f>M5+M6</f>
+        <v>6611.56</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
+        <v>46004</v>
+      </c>
+      <c r="B8" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="E8" s="7">
+        <v>580</v>
+      </c>
+      <c r="F8" s="7">
+        <v>580</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>46003</v>
+      </c>
+      <c r="B9" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>290</v>
+      </c>
+      <c r="F9" s="7">
+        <v>290</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>46002</v>
+      </c>
+      <c r="B10" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>832</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>460</v>
+      </c>
+      <c r="F10" s="7">
+        <v>460</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>46001</v>
+      </c>
+      <c r="B11" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>970</v>
+      </c>
+      <c r="F11" s="7">
+        <v>970</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
+        <v>46000</v>
+      </c>
+      <c r="B12" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>408</v>
+      </c>
+      <c r="F12" s="7">
+        <v>408</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>45999</v>
+      </c>
+      <c r="B13" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>485</v>
+      </c>
+      <c r="F13" s="7">
+        <v>485</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>45998</v>
+      </c>
+      <c r="B14" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>838</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>370</v>
+      </c>
+      <c r="F14" s="7">
+        <v>370</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>45997</v>
+      </c>
+      <c r="B15" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>489</v>
+      </c>
+      <c r="F15" s="7">
+        <v>489</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>45996</v>
+      </c>
+      <c r="B16" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>324</v>
+      </c>
+      <c r="F16" s="7">
+        <v>324</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>45995</v>
+      </c>
+      <c r="B17" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>576</v>
+      </c>
+      <c r="F17" s="7">
+        <v>576</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
+        <v>45992</v>
+      </c>
+      <c r="B18" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7">
+        <v>740</v>
+      </c>
+      <c r="F18" s="7">
+        <v>740</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>45991</v>
+      </c>
+      <c r="B19" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>481</v>
+      </c>
+      <c r="F19" s="7">
+        <v>481</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>45990</v>
+      </c>
+      <c r="B20" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>580</v>
+      </c>
+      <c r="F20" s="7">
+        <v>580</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>45989</v>
+      </c>
+      <c r="B21" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>481</v>
+      </c>
+      <c r="F21" s="7">
+        <v>481</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>45988</v>
+      </c>
+      <c r="B22" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>576</v>
+      </c>
+      <c r="F22" s="7">
+        <v>576</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>45987</v>
+      </c>
+      <c r="B23" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>352</v>
+      </c>
+      <c r="F23" s="7">
+        <v>352</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7">
+        <v>45983</v>
+      </c>
+      <c r="B24" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>576</v>
+      </c>
+      <c r="F24" s="7">
+        <v>576</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>45982</v>
+      </c>
+      <c r="B25" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>620</v>
+      </c>
+      <c r="F25" s="7">
+        <v>620</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>45981</v>
+      </c>
+      <c r="B26" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>469</v>
+      </c>
+      <c r="F26" s="7">
+        <v>469</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7">
+        <v>45980</v>
+      </c>
+      <c r="B27" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>330</v>
+      </c>
+      <c r="F27" s="7">
+        <v>330</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7">
+        <v>45979</v>
+      </c>
+      <c r="B28" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>858</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>570</v>
+      </c>
+      <c r="F28" s="7">
+        <v>570</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7">
+        <v>45978</v>
+      </c>
+      <c r="B29" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="D29" s="7">
+        <v>4</v>
+      </c>
+      <c r="E29" s="7">
+        <v>352</v>
+      </c>
+      <c r="F29" s="7">
+        <v>352</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7">
+        <v>45977</v>
+      </c>
+      <c r="B30" s="7">
+        <v>15874</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>370</v>
+      </c>
+      <c r="F30" s="7">
+        <v>370</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O22"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1">
-        <v>45976</v>
+        <v>46044</v>
       </c>
       <c r="B1" s="1">
         <v>15874</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>752</v>
+        <v>863</v>
       </c>
       <c r="D1" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>729</v>
+        <v>1000</v>
       </c>
       <c r="F1" s="1">
-        <v>729</v>
+        <v>1000</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>753</v>
+        <v>864</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>45975</v>
+        <v>46038</v>
       </c>
       <c r="B2" s="1">
         <v>15874</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>754</v>
+        <v>865</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>567</v>
+        <v>700</v>
       </c>
       <c r="F2" s="1">
-        <v>567</v>
+        <v>700</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>755</v>
+        <v>866</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2">
-        <v>24000</v>
-      </c>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>45973</v>
+        <v>46037</v>
       </c>
       <c r="B3" s="1">
         <v>15874</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>756</v>
+        <v>867</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="F3" s="1">
-        <v>298</v>
+        <v>145</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>757</v>
+        <v>866</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>10</v>
@@ -10105,1129 +12441,531 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>45972</v>
+        <v>46036</v>
       </c>
       <c r="B4" s="1">
         <v>15874</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>758</v>
+        <v>868</v>
       </c>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="F4" s="1">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>753</v>
+        <v>869</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="4">
         <f>SUM(E:E)</f>
-        <v>23629</v>
+        <v>6611.5</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>45969</v>
+        <v>46035</v>
       </c>
       <c r="B5" s="1">
         <v>15874</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>759</v>
+        <v>870</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>760</v>
+        <v>871</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="5">
         <f>M2+M3-O3-M4</f>
-        <v>371</v>
+        <v>-6611.5</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>45967</v>
+        <v>46034</v>
       </c>
       <c r="B6" s="1">
         <v>15874</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>761</v>
+        <v>872</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>760</v>
+        <v>873</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M6" s="3">
-        <v>-339.44</v>
+        <v>6611.56</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>45966</v>
+        <v>46033</v>
       </c>
       <c r="B7" s="1">
         <v>15874</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>762</v>
+        <v>874</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>716</v>
+        <v>370</v>
       </c>
       <c r="F7" s="1">
-        <v>716</v>
+        <v>370</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>755</v>
+        <v>873</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>31.56</v>
+        <v>0.0600000000004002</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>45965</v>
+        <v>46032</v>
       </c>
       <c r="B8" s="1">
         <v>15874</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>763</v>
+        <v>875</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>760</v>
+        <v>39.9</v>
       </c>
       <c r="F8" s="1">
-        <v>760</v>
+        <v>39.9</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>764</v>
+        <v>876</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>45964</v>
+        <v>46031</v>
       </c>
       <c r="B9" s="1">
         <v>15874</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>765</v>
+        <v>877</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>266</v>
+        <v>199.5</v>
       </c>
       <c r="F9" s="1">
-        <v>266</v>
+        <v>199.5</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>766</v>
+        <v>878</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>45963</v>
+        <v>46030</v>
       </c>
       <c r="B10" s="1">
         <v>15874</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>767</v>
+        <v>879</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>761</v>
+        <v>105</v>
       </c>
       <c r="F10" s="1">
-        <v>761</v>
+        <v>105</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>768</v>
+        <v>880</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>45962</v>
+        <v>46029</v>
       </c>
       <c r="B11" s="1">
         <v>15874</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>769</v>
+        <v>881</v>
       </c>
       <c r="D11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>696</v>
+        <v>39.9</v>
       </c>
       <c r="F11" s="1">
-        <v>696</v>
+        <v>39.9</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>770</v>
+        <v>882</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>45961</v>
+        <v>46028</v>
       </c>
       <c r="B12" s="1">
         <v>15874</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>771</v>
+        <v>883</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="F12" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>772</v>
+        <v>884</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>45960</v>
+        <v>46027</v>
       </c>
       <c r="B13" s="1">
         <v>15874</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>773</v>
+        <v>885</v>
       </c>
       <c r="D13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>637</v>
+        <v>42.9</v>
       </c>
       <c r="F13" s="1">
-        <v>637</v>
+        <v>42.9</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>770</v>
+        <v>886</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1">
-        <v>45958</v>
+        <v>46026</v>
       </c>
       <c r="B14" s="1">
         <v>15874</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>774</v>
+        <v>887</v>
       </c>
       <c r="D14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>495</v>
+        <v>29.9</v>
       </c>
       <c r="F14" s="1">
-        <v>495</v>
+        <v>29.9</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>772</v>
+        <v>888</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>45957</v>
+        <v>46025</v>
       </c>
       <c r="B15" s="1">
         <v>15874</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>775</v>
+        <v>889</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
-        <v>470</v>
+        <v>89.7</v>
       </c>
       <c r="F15" s="1">
-        <v>470</v>
+        <v>89.7</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>776</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>45956</v>
+        <v>46024</v>
       </c>
       <c r="B16" s="1">
         <v>15874</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>777</v>
+        <v>891</v>
       </c>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
-        <v>342</v>
+        <v>59.8</v>
       </c>
       <c r="F16" s="1">
-        <v>342</v>
+        <v>59.8</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>778</v>
+        <v>892</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1">
-        <v>45954</v>
+        <v>46023</v>
       </c>
       <c r="B17" s="1">
         <v>15874</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>779</v>
+        <v>893</v>
       </c>
       <c r="D17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>280</v>
+        <v>45.9</v>
       </c>
       <c r="F17" s="1">
-        <v>280</v>
+        <v>45.9</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>776</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>45952</v>
+        <v>46022</v>
       </c>
       <c r="B18" s="1">
         <v>15874</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>780</v>
+        <v>894</v>
       </c>
       <c r="D18" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="F18" s="1">
-        <v>472</v>
+        <v>395</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>776</v>
+        <v>895</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>45951</v>
+        <v>46021</v>
       </c>
       <c r="B19" s="1">
         <v>15874</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>781</v>
+        <v>896</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>973</v>
+        <v>288</v>
       </c>
       <c r="F19" s="1">
-        <v>973</v>
+        <v>288</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>768</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>45950</v>
+        <v>46020</v>
       </c>
       <c r="B20" s="1">
         <v>15874</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>782</v>
+        <v>897</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>715</v>
+        <v>468</v>
       </c>
       <c r="F20" s="1">
-        <v>715</v>
+        <v>468</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>757</v>
+        <v>898</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>45949</v>
+        <v>46018</v>
       </c>
       <c r="B21" s="1">
         <v>15874</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>783</v>
+        <v>899</v>
       </c>
       <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>766</v>
+        <v>945</v>
       </c>
       <c r="F21" s="1">
-        <v>766</v>
+        <v>945</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>776</v>
+        <v>898</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1">
-        <v>45948</v>
+        <v>46017</v>
       </c>
       <c r="B22" s="1">
         <v>15874</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>784</v>
+        <v>900</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>252</v>
+        <v>608</v>
       </c>
       <c r="F22" s="1">
-        <v>252</v>
+        <v>608</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>45947</v>
-      </c>
-      <c r="B23" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>174</v>
-      </c>
-      <c r="F23" s="1">
-        <v>174</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>45946</v>
-      </c>
-      <c r="B24" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>454</v>
-      </c>
-      <c r="F24" s="1">
-        <v>454</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>45945</v>
-      </c>
-      <c r="B25" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1140</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1140</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>45944</v>
-      </c>
-      <c r="B26" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>557</v>
-      </c>
-      <c r="F26" s="1">
-        <v>557</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>45943</v>
-      </c>
-      <c r="B27" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>428</v>
-      </c>
-      <c r="F27" s="1">
-        <v>428</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>45942</v>
-      </c>
-      <c r="B28" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>290</v>
-      </c>
-      <c r="F28" s="1">
-        <v>290</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>45941</v>
-      </c>
-      <c r="B29" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>576</v>
-      </c>
-      <c r="F29" s="1">
-        <v>576</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>45940</v>
-      </c>
-      <c r="B30" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>398</v>
-      </c>
-      <c r="F30" s="1">
-        <v>398</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>45935</v>
-      </c>
-      <c r="B31" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>490</v>
-      </c>
-      <c r="F31" s="1">
-        <v>490</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>45933</v>
-      </c>
-      <c r="B32" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>398</v>
-      </c>
-      <c r="F32" s="1">
-        <v>398</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1">
-        <v>45931</v>
-      </c>
-      <c r="B33" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>978</v>
-      </c>
-      <c r="F33" s="1">
-        <v>978</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1">
-        <v>45928</v>
-      </c>
-      <c r="B34" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1">
-        <v>330</v>
-      </c>
-      <c r="F34" s="1">
-        <v>330</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1">
-        <v>45927</v>
-      </c>
-      <c r="B35" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>570</v>
-      </c>
-      <c r="F35" s="1">
-        <v>570</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1">
-        <v>45926</v>
-      </c>
-      <c r="B36" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>216</v>
-      </c>
-      <c r="F36" s="1">
-        <v>216</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1">
-        <v>45925</v>
-      </c>
-      <c r="B37" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>395</v>
-      </c>
-      <c r="F37" s="1">
-        <v>395</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1">
-        <v>45924</v>
-      </c>
-      <c r="B38" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>576</v>
-      </c>
-      <c r="F38" s="1">
-        <v>576</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1">
-        <v>45923</v>
-      </c>
-      <c r="B39" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>660</v>
-      </c>
-      <c r="F39" s="1">
-        <v>660</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1">
-        <v>45922</v>
-      </c>
-      <c r="B40" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>790</v>
-      </c>
-      <c r="F40" s="1">
-        <v>790</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1">
-        <v>45921</v>
-      </c>
-      <c r="B41" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1">
-        <v>440</v>
-      </c>
-      <c r="F41" s="1">
-        <v>440</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1">
-        <v>45920</v>
-      </c>
-      <c r="B42" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>395</v>
-      </c>
-      <c r="F42" s="1">
-        <v>395</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1">
-        <v>45919</v>
-      </c>
-      <c r="B43" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>424</v>
-      </c>
-      <c r="F43" s="1">
-        <v>424</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1">
-        <v>45918</v>
-      </c>
-      <c r="B44" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1">
-        <v>450</v>
-      </c>
-      <c r="F44" s="1">
-        <v>450</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1">
-        <v>45917</v>
-      </c>
-      <c r="B45" s="1">
-        <v>15874</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1">
-        <v>450</v>
-      </c>
-      <c r="F45" s="1">
-        <v>450</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>816</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -16044,7 +17782,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O7"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -16107,7 +17845,7 @@
         <v>8</v>
       </c>
       <c r="M2" s="2">
-        <v>30000</v>
+        <v>31000</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
@@ -16211,7 +17949,7 @@
       </c>
       <c r="M5" s="5">
         <f>M2+M3-O3-M4</f>
-        <v>-1575</v>
+        <v>-575</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="3"/>
@@ -16280,7 +18018,7 @@
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>-3107.34</v>
+        <v>-2107.34</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -17389,7 +19127,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17590,7 +19328,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="3">
-        <v>-3107.34</v>
+        <v>-2107.34</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -17625,7 +19363,7 @@
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>18231.66</v>
+        <v>19231.66</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -17850,7 +19588,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18051,7 +19789,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="3">
-        <v>18231.66</v>
+        <v>19231.66</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -18086,7 +19824,7 @@
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>-974.939999999999</v>
+        <v>25.0600000000013</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -18831,7 +20569,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:O7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19029,7 +20767,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="3">
-        <v>-974.94</v>
+        <v>25.06</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -19064,7 +20802,7 @@
       </c>
       <c r="M7" s="6">
         <f>M5+M6</f>
-        <v>9304.06</v>
+        <v>10304.06</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
